--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/TEMPLATE_QMM008_E.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/TEMPLATE_QMM008_E.xlsx
@@ -84,7 +84,7 @@
     <definedName name="Ｏホ">#REF!</definedName>
     <definedName name="PG単価">[8]明細合計!#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$N$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$N$60</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
     <definedName name="QuitDaicho">[9]!QuitDaicho</definedName>
     <definedName name="SE単価">[8]明細合計!#REF!</definedName>
@@ -191,20 +191,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
       <t>メイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>000000000001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あああああああああああああああ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -245,6 +237,9 @@
   </si>
   <si>
     <t>内（基本）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -638,30 +633,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -697,6 +668,30 @@
     </xf>
     <xf numFmtId="38" fontId="4" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -44644,8 +44639,8 @@
   </sheetPr>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:M59"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
@@ -44664,16 +44659,16 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="4.9000000000000004" customHeight="1">
@@ -44682,834 +44677,834 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="13" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="18"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" thickBot="1">
       <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>14</v>
+      <c r="J4" s="9" t="s">
+        <v>10</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>15</v>
+      <c r="K4" s="10" t="s">
+        <v>11</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="M4" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" thickTop="1">
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1">
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1">
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1">
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="18" customHeight="1">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="2:13" ht="18" customHeight="1">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="2:13" ht="18" customHeight="1">
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="18" customHeight="1">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
     </row>
     <row r="22" spans="2:13" ht="18" customHeight="1">
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
     </row>
     <row r="23" spans="2:13" ht="18" customHeight="1">
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1">
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
     </row>
     <row r="25" spans="2:13" ht="18" customHeight="1">
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="2:13" ht="18" customHeight="1">
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
     </row>
     <row r="27" spans="2:13" ht="18" customHeight="1">
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
     </row>
     <row r="28" spans="2:13" ht="18" customHeight="1">
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
     </row>
     <row r="29" spans="2:13" ht="18" customHeight="1">
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="2:13" ht="18" customHeight="1">
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
     </row>
     <row r="31" spans="2:13" ht="18" customHeight="1">
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
     </row>
     <row r="32" spans="2:13" ht="18" customHeight="1">
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
     </row>
     <row r="33" spans="2:13" ht="18" customHeight="1">
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
     </row>
     <row r="34" spans="2:13" ht="18" customHeight="1">
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
     </row>
     <row r="35" spans="2:13" ht="18" customHeight="1">
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
     </row>
     <row r="36" spans="2:13" ht="18" customHeight="1">
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
     </row>
     <row r="37" spans="2:13" ht="18" customHeight="1">
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:13" ht="18" customHeight="1">
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
     </row>
     <row r="39" spans="2:13" ht="18" customHeight="1">
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
     </row>
     <row r="40" spans="2:13" ht="18" customHeight="1">
-      <c r="B40" s="27"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
     </row>
     <row r="41" spans="2:13" ht="18" customHeight="1">
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
     </row>
     <row r="42" spans="2:13" ht="18" customHeight="1">
-      <c r="B42" s="27"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
     </row>
     <row r="43" spans="2:13" ht="18" customHeight="1">
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
     </row>
     <row r="44" spans="2:13" ht="18" customHeight="1">
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
     </row>
     <row r="45" spans="2:13" ht="18" customHeight="1">
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
     </row>
     <row r="46" spans="2:13" ht="18" customHeight="1">
-      <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
     </row>
     <row r="47" spans="2:13" ht="18" customHeight="1">
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
     </row>
     <row r="48" spans="2:13" ht="18" customHeight="1">
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
     </row>
     <row r="49" spans="2:13" ht="18" customHeight="1">
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
     </row>
     <row r="50" spans="2:13" ht="18" customHeight="1">
-      <c r="B50" s="27"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
     </row>
     <row r="51" spans="2:13" ht="18" customHeight="1">
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
     </row>
     <row r="52" spans="2:13" ht="18" customHeight="1">
-      <c r="B52" s="27"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
     </row>
     <row r="53" spans="2:13" ht="18" customHeight="1">
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
     </row>
     <row r="54" spans="2:13" ht="18" customHeight="1">
-      <c r="B54" s="27"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
     </row>
     <row r="56" spans="2:13" ht="18" customHeight="1">
-      <c r="B56" s="27"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
     </row>
     <row r="57" spans="2:13" ht="18" customHeight="1">
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
     </row>
     <row r="58" spans="2:13" ht="18" customHeight="1">
-      <c r="B58" s="27"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
     </row>
     <row r="59" spans="2:13" ht="18" customHeight="1">
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
     </row>
     <row r="60" spans="2:13" ht="18" customHeight="1"/>
     <row r="61" spans="2:13" ht="18" customHeight="1"/>
@@ -45525,7 +45520,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/TEMPLATE_QMM008_E.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/TEMPLATE_QMM008_E.xlsx
@@ -327,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -581,6 +581,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -595,7 +675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -693,6 +773,51 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="3" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
@@ -743,6 +868,70 @@
         <a:xfrm>
           <a:off x="86365" y="212911"/>
           <a:ext cx="9366357" cy="12729882"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 390"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19130</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>17369</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104855" y="209550"/>
+          <a:ext cx="9323214" cy="13052612"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -44640,7 +44829,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
@@ -44739,40 +44928,40 @@
     <row r="5" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1">
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="14"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="15"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -44782,25 +44971,25 @@
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1">
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="14"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="15"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -44810,48 +44999,48 @@
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1">
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="14"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="15"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="20"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="21"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
@@ -44863,9 +45052,9 @@
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="22"/>
       <c r="F14" s="23"/>
       <c r="G14" s="24"/>
@@ -44877,9 +45066,9 @@
       <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
       <c r="G15" s="18"/>
@@ -44891,9 +45080,9 @@
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
@@ -44905,9 +45094,9 @@
       <c r="M16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="18" customHeight="1">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
@@ -44919,9 +45108,9 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="2:13" ht="18" customHeight="1">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="24"/>
@@ -44933,9 +45122,9 @@
       <c r="M18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -44947,9 +45136,9 @@
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="2:13" ht="18" customHeight="1">
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="22"/>
       <c r="F20" s="23"/>
       <c r="G20" s="24"/>
@@ -44961,9 +45150,9 @@
       <c r="M20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="18" customHeight="1">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="16"/>
       <c r="F21" s="17"/>
       <c r="G21" s="18"/>
@@ -44975,9 +45164,9 @@
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="2:13" ht="18" customHeight="1">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="22"/>
       <c r="F22" s="23"/>
       <c r="G22" s="24"/>
@@ -44989,9 +45178,9 @@
       <c r="M22" s="24"/>
     </row>
     <row r="23" spans="2:13" ht="18" customHeight="1">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="16"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
@@ -45003,9 +45192,9 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1">
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="22"/>
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
@@ -45017,9 +45206,9 @@
       <c r="M24" s="24"/>
     </row>
     <row r="25" spans="2:13" ht="18" customHeight="1">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
@@ -45031,9 +45220,9 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="2:13" ht="18" customHeight="1">
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="22"/>
       <c r="F26" s="23"/>
       <c r="G26" s="24"/>
@@ -45045,9 +45234,9 @@
       <c r="M26" s="24"/>
     </row>
     <row r="27" spans="2:13" ht="18" customHeight="1">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="16"/>
       <c r="F27" s="17"/>
       <c r="G27" s="18"/>
@@ -45059,9 +45248,9 @@
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="2:13" ht="18" customHeight="1">
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="22"/>
       <c r="F28" s="23"/>
       <c r="G28" s="24"/>
@@ -45073,9 +45262,9 @@
       <c r="M28" s="24"/>
     </row>
     <row r="29" spans="2:13" ht="18" customHeight="1">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="16"/>
       <c r="F29" s="17"/>
       <c r="G29" s="18"/>
@@ -45087,9 +45276,9 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="2:13" ht="18" customHeight="1">
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="22"/>
       <c r="F30" s="23"/>
       <c r="G30" s="24"/>
@@ -45101,9 +45290,9 @@
       <c r="M30" s="24"/>
     </row>
     <row r="31" spans="2:13" ht="18" customHeight="1">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="16"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18"/>
@@ -45115,9 +45304,9 @@
       <c r="M31" s="18"/>
     </row>
     <row r="32" spans="2:13" ht="18" customHeight="1">
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="22"/>
       <c r="F32" s="23"/>
       <c r="G32" s="24"/>
@@ -45129,9 +45318,9 @@
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="2:13" ht="18" customHeight="1">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
       <c r="G33" s="18"/>
@@ -45143,9 +45332,9 @@
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="2:13" ht="18" customHeight="1">
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="22"/>
       <c r="F34" s="23"/>
       <c r="G34" s="24"/>
@@ -45157,9 +45346,9 @@
       <c r="M34" s="24"/>
     </row>
     <row r="35" spans="2:13" ht="18" customHeight="1">
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="16"/>
       <c r="F35" s="17"/>
       <c r="G35" s="18"/>
@@ -45171,9 +45360,9 @@
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="2:13" ht="18" customHeight="1">
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="22"/>
       <c r="F36" s="23"/>
       <c r="G36" s="24"/>
@@ -45185,9 +45374,9 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="2:13" ht="18" customHeight="1">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
       <c r="G37" s="18"/>
@@ -45199,9 +45388,9 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:13" ht="18" customHeight="1">
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="22"/>
       <c r="F38" s="23"/>
       <c r="G38" s="24"/>
@@ -45213,9 +45402,9 @@
       <c r="M38" s="24"/>
     </row>
     <row r="39" spans="2:13" ht="18" customHeight="1">
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18"/>
@@ -45227,9 +45416,9 @@
       <c r="M39" s="18"/>
     </row>
     <row r="40" spans="2:13" ht="18" customHeight="1">
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="22"/>
       <c r="F40" s="23"/>
       <c r="G40" s="24"/>
@@ -45241,9 +45430,9 @@
       <c r="M40" s="24"/>
     </row>
     <row r="41" spans="2:13" ht="18" customHeight="1">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
       <c r="G41" s="18"/>
@@ -45255,9 +45444,9 @@
       <c r="M41" s="18"/>
     </row>
     <row r="42" spans="2:13" ht="18" customHeight="1">
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
       <c r="E42" s="22"/>
       <c r="F42" s="23"/>
       <c r="G42" s="24"/>
@@ -45269,9 +45458,9 @@
       <c r="M42" s="24"/>
     </row>
     <row r="43" spans="2:13" ht="18" customHeight="1">
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
       <c r="G43" s="18"/>
@@ -45283,9 +45472,9 @@
       <c r="M43" s="18"/>
     </row>
     <row r="44" spans="2:13" ht="18" customHeight="1">
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
       <c r="E44" s="22"/>
       <c r="F44" s="23"/>
       <c r="G44" s="24"/>
@@ -45297,9 +45486,9 @@
       <c r="M44" s="24"/>
     </row>
     <row r="45" spans="2:13" ht="18" customHeight="1">
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="16"/>
       <c r="F45" s="17"/>
       <c r="G45" s="18"/>
@@ -45311,9 +45500,9 @@
       <c r="M45" s="18"/>
     </row>
     <row r="46" spans="2:13" ht="18" customHeight="1">
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="21"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="41"/>
       <c r="E46" s="22"/>
       <c r="F46" s="23"/>
       <c r="G46" s="24"/>
@@ -45325,9 +45514,9 @@
       <c r="M46" s="24"/>
     </row>
     <row r="47" spans="2:13" ht="18" customHeight="1">
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
       <c r="E47" s="16"/>
       <c r="F47" s="17"/>
       <c r="G47" s="18"/>
@@ -45339,9 +45528,9 @@
       <c r="M47" s="18"/>
     </row>
     <row r="48" spans="2:13" ht="18" customHeight="1">
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="22"/>
       <c r="F48" s="23"/>
       <c r="G48" s="24"/>
@@ -45353,9 +45542,9 @@
       <c r="M48" s="24"/>
     </row>
     <row r="49" spans="2:13" ht="18" customHeight="1">
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="47"/>
       <c r="E49" s="16"/>
       <c r="F49" s="17"/>
       <c r="G49" s="18"/>
@@ -45367,9 +45556,9 @@
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="2:13" ht="18" customHeight="1">
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="21"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="41"/>
       <c r="E50" s="22"/>
       <c r="F50" s="23"/>
       <c r="G50" s="24"/>
@@ -45381,9 +45570,9 @@
       <c r="M50" s="24"/>
     </row>
     <row r="51" spans="2:13" ht="18" customHeight="1">
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
       <c r="E51" s="16"/>
       <c r="F51" s="17"/>
       <c r="G51" s="18"/>
@@ -45395,9 +45584,9 @@
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="2:13" ht="18" customHeight="1">
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
       <c r="E52" s="22"/>
       <c r="F52" s="23"/>
       <c r="G52" s="24"/>
@@ -45409,9 +45598,9 @@
       <c r="M52" s="24"/>
     </row>
     <row r="53" spans="2:13" ht="18" customHeight="1">
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
       <c r="E53" s="16"/>
       <c r="F53" s="17"/>
       <c r="G53" s="18"/>
@@ -45423,9 +45612,9 @@
       <c r="M53" s="18"/>
     </row>
     <row r="54" spans="2:13" ht="18" customHeight="1">
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="41"/>
       <c r="E54" s="22"/>
       <c r="F54" s="23"/>
       <c r="G54" s="24"/>
@@ -45437,9 +45626,9 @@
       <c r="M54" s="24"/>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="16"/>
       <c r="F55" s="17"/>
       <c r="G55" s="18"/>
@@ -45451,9 +45640,9 @@
       <c r="M55" s="18"/>
     </row>
     <row r="56" spans="2:13" ht="18" customHeight="1">
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="21"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
       <c r="E56" s="22"/>
       <c r="F56" s="23"/>
       <c r="G56" s="24"/>
@@ -45465,9 +45654,9 @@
       <c r="M56" s="24"/>
     </row>
     <row r="57" spans="2:13" ht="18" customHeight="1">
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="47"/>
       <c r="E57" s="16"/>
       <c r="F57" s="17"/>
       <c r="G57" s="18"/>
@@ -45479,9 +45668,9 @@
       <c r="M57" s="18"/>
     </row>
     <row r="58" spans="2:13" ht="18" customHeight="1">
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="21"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="41"/>
       <c r="E58" s="22"/>
       <c r="F58" s="23"/>
       <c r="G58" s="24"/>
@@ -45493,9 +45682,9 @@
       <c r="M58" s="24"/>
     </row>
     <row r="59" spans="2:13" ht="18" customHeight="1">
-      <c r="B59" s="13"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="47"/>
       <c r="E59" s="16"/>
       <c r="F59" s="17"/>
       <c r="G59" s="18"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/TEMPLATE_QMM008_E.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/TEMPLATE_QMM008_E.xlsx
@@ -327,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -581,86 +581,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color theme="6"/>
-      </left>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6"/>
-      </left>
-      <right style="thick">
-        <color theme="6"/>
-      </right>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6"/>
-      </left>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top style="thick">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6"/>
-      </left>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -675,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -773,51 +693,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="3" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
@@ -868,70 +743,6 @@
         <a:xfrm>
           <a:off x="86365" y="212911"/>
           <a:ext cx="9366357" cy="12729882"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 390"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19130</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>17369</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="104855" y="209550"/>
-          <a:ext cx="9323214" cy="13052612"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -44829,7 +44640,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:M11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
@@ -44928,40 +44739,40 @@
     <row r="5" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1">
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="16"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="15"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -44971,25 +44782,25 @@
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="22"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="21"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1">
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="16"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="15"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -44999,48 +44810,48 @@
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1">
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="16"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="15"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1">
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="21"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
@@ -45052,9 +44863,9 @@
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="22"/>
       <c r="F14" s="23"/>
       <c r="G14" s="24"/>
@@ -45066,9 +44877,9 @@
       <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
       <c r="G15" s="18"/>
@@ -45080,9 +44891,9 @@
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
@@ -45094,9 +44905,9 @@
       <c r="M16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="18" customHeight="1">
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
@@ -45108,9 +44919,9 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="2:13" ht="18" customHeight="1">
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="24"/>
@@ -45122,9 +44933,9 @@
       <c r="M18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -45136,9 +44947,9 @@
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="2:13" ht="18" customHeight="1">
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="22"/>
       <c r="F20" s="23"/>
       <c r="G20" s="24"/>
@@ -45150,9 +44961,9 @@
       <c r="M20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="18" customHeight="1">
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="16"/>
       <c r="F21" s="17"/>
       <c r="G21" s="18"/>
@@ -45164,9 +44975,9 @@
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="2:13" ht="18" customHeight="1">
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="22"/>
       <c r="F22" s="23"/>
       <c r="G22" s="24"/>
@@ -45178,9 +44989,9 @@
       <c r="M22" s="24"/>
     </row>
     <row r="23" spans="2:13" ht="18" customHeight="1">
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="16"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
@@ -45192,9 +45003,9 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1">
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="22"/>
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
@@ -45206,9 +45017,9 @@
       <c r="M24" s="24"/>
     </row>
     <row r="25" spans="2:13" ht="18" customHeight="1">
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
@@ -45220,9 +45031,9 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="2:13" ht="18" customHeight="1">
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="22"/>
       <c r="F26" s="23"/>
       <c r="G26" s="24"/>
@@ -45234,9 +45045,9 @@
       <c r="M26" s="24"/>
     </row>
     <row r="27" spans="2:13" ht="18" customHeight="1">
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="16"/>
       <c r="F27" s="17"/>
       <c r="G27" s="18"/>
@@ -45248,9 +45059,9 @@
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="2:13" ht="18" customHeight="1">
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="22"/>
       <c r="F28" s="23"/>
       <c r="G28" s="24"/>
@@ -45262,9 +45073,9 @@
       <c r="M28" s="24"/>
     </row>
     <row r="29" spans="2:13" ht="18" customHeight="1">
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="16"/>
       <c r="F29" s="17"/>
       <c r="G29" s="18"/>
@@ -45276,9 +45087,9 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="2:13" ht="18" customHeight="1">
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="22"/>
       <c r="F30" s="23"/>
       <c r="G30" s="24"/>
@@ -45290,9 +45101,9 @@
       <c r="M30" s="24"/>
     </row>
     <row r="31" spans="2:13" ht="18" customHeight="1">
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="16"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18"/>
@@ -45304,9 +45115,9 @@
       <c r="M31" s="18"/>
     </row>
     <row r="32" spans="2:13" ht="18" customHeight="1">
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="22"/>
       <c r="F32" s="23"/>
       <c r="G32" s="24"/>
@@ -45318,9 +45129,9 @@
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="2:13" ht="18" customHeight="1">
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
       <c r="G33" s="18"/>
@@ -45332,9 +45143,9 @@
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="2:13" ht="18" customHeight="1">
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="22"/>
       <c r="F34" s="23"/>
       <c r="G34" s="24"/>
@@ -45346,9 +45157,9 @@
       <c r="M34" s="24"/>
     </row>
     <row r="35" spans="2:13" ht="18" customHeight="1">
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="16"/>
       <c r="F35" s="17"/>
       <c r="G35" s="18"/>
@@ -45360,9 +45171,9 @@
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="2:13" ht="18" customHeight="1">
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="22"/>
       <c r="F36" s="23"/>
       <c r="G36" s="24"/>
@@ -45374,9 +45185,9 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="2:13" ht="18" customHeight="1">
-      <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
       <c r="G37" s="18"/>
@@ -45388,9 +45199,9 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:13" ht="18" customHeight="1">
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="41"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="22"/>
       <c r="F38" s="23"/>
       <c r="G38" s="24"/>
@@ -45402,9 +45213,9 @@
       <c r="M38" s="24"/>
     </row>
     <row r="39" spans="2:13" ht="18" customHeight="1">
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="47"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18"/>
@@ -45416,9 +45227,9 @@
       <c r="M39" s="18"/>
     </row>
     <row r="40" spans="2:13" ht="18" customHeight="1">
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="22"/>
       <c r="F40" s="23"/>
       <c r="G40" s="24"/>
@@ -45430,9 +45241,9 @@
       <c r="M40" s="24"/>
     </row>
     <row r="41" spans="2:13" ht="18" customHeight="1">
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
       <c r="G41" s="18"/>
@@ -45444,9 +45255,9 @@
       <c r="M41" s="18"/>
     </row>
     <row r="42" spans="2:13" ht="18" customHeight="1">
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="22"/>
       <c r="F42" s="23"/>
       <c r="G42" s="24"/>
@@ -45458,9 +45269,9 @@
       <c r="M42" s="24"/>
     </row>
     <row r="43" spans="2:13" ht="18" customHeight="1">
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="47"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
       <c r="G43" s="18"/>
@@ -45472,9 +45283,9 @@
       <c r="M43" s="18"/>
     </row>
     <row r="44" spans="2:13" ht="18" customHeight="1">
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="41"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="22"/>
       <c r="F44" s="23"/>
       <c r="G44" s="24"/>
@@ -45486,9 +45297,9 @@
       <c r="M44" s="24"/>
     </row>
     <row r="45" spans="2:13" ht="18" customHeight="1">
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="47"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="16"/>
       <c r="F45" s="17"/>
       <c r="G45" s="18"/>
@@ -45500,9 +45311,9 @@
       <c r="M45" s="18"/>
     </row>
     <row r="46" spans="2:13" ht="18" customHeight="1">
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="41"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="22"/>
       <c r="F46" s="23"/>
       <c r="G46" s="24"/>
@@ -45514,9 +45325,9 @@
       <c r="M46" s="24"/>
     </row>
     <row r="47" spans="2:13" ht="18" customHeight="1">
-      <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="47"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="16"/>
       <c r="F47" s="17"/>
       <c r="G47" s="18"/>
@@ -45528,9 +45339,9 @@
       <c r="M47" s="18"/>
     </row>
     <row r="48" spans="2:13" ht="18" customHeight="1">
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="41"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="22"/>
       <c r="F48" s="23"/>
       <c r="G48" s="24"/>
@@ -45542,9 +45353,9 @@
       <c r="M48" s="24"/>
     </row>
     <row r="49" spans="2:13" ht="18" customHeight="1">
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="47"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="16"/>
       <c r="F49" s="17"/>
       <c r="G49" s="18"/>
@@ -45556,9 +45367,9 @@
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="2:13" ht="18" customHeight="1">
-      <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="41"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="22"/>
       <c r="F50" s="23"/>
       <c r="G50" s="24"/>
@@ -45570,9 +45381,9 @@
       <c r="M50" s="24"/>
     </row>
     <row r="51" spans="2:13" ht="18" customHeight="1">
-      <c r="B51" s="45"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="47"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
       <c r="E51" s="16"/>
       <c r="F51" s="17"/>
       <c r="G51" s="18"/>
@@ -45584,9 +45395,9 @@
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="2:13" ht="18" customHeight="1">
-      <c r="B52" s="39"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="41"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="21"/>
       <c r="E52" s="22"/>
       <c r="F52" s="23"/>
       <c r="G52" s="24"/>
@@ -45598,9 +45409,9 @@
       <c r="M52" s="24"/>
     </row>
     <row r="53" spans="2:13" ht="18" customHeight="1">
-      <c r="B53" s="45"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="47"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
       <c r="E53" s="16"/>
       <c r="F53" s="17"/>
       <c r="G53" s="18"/>
@@ -45612,9 +45423,9 @@
       <c r="M53" s="18"/>
     </row>
     <row r="54" spans="2:13" ht="18" customHeight="1">
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="41"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="22"/>
       <c r="F54" s="23"/>
       <c r="G54" s="24"/>
@@ -45626,9 +45437,9 @@
       <c r="M54" s="24"/>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="45"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="47"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="16"/>
       <c r="F55" s="17"/>
       <c r="G55" s="18"/>
@@ -45640,9 +45451,9 @@
       <c r="M55" s="18"/>
     </row>
     <row r="56" spans="2:13" ht="18" customHeight="1">
-      <c r="B56" s="39"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="41"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
       <c r="E56" s="22"/>
       <c r="F56" s="23"/>
       <c r="G56" s="24"/>
@@ -45654,9 +45465,9 @@
       <c r="M56" s="24"/>
     </row>
     <row r="57" spans="2:13" ht="18" customHeight="1">
-      <c r="B57" s="45"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="47"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
       <c r="E57" s="16"/>
       <c r="F57" s="17"/>
       <c r="G57" s="18"/>
@@ -45668,9 +45479,9 @@
       <c r="M57" s="18"/>
     </row>
     <row r="58" spans="2:13" ht="18" customHeight="1">
-      <c r="B58" s="39"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="41"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="21"/>
       <c r="E58" s="22"/>
       <c r="F58" s="23"/>
       <c r="G58" s="24"/>
@@ -45682,9 +45493,9 @@
       <c r="M58" s="24"/>
     </row>
     <row r="59" spans="2:13" ht="18" customHeight="1">
-      <c r="B59" s="45"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="47"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
       <c r="E59" s="16"/>
       <c r="F59" s="17"/>
       <c r="G59" s="18"/>
